--- a/Main/SASdata/single_formue.xlsx
+++ b/Main/SASdata/single_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\github\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FF0C4-112D-4F98-A2A7-6A61F9972124}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA258D-4BA0-4041-8444-84F094362267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -55,9 +55,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +421,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +429,11 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,44 +505,44 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="G2">
-        <v>1.6080000000000001</v>
-      </c>
-      <c r="H2">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="I2">
-        <v>3.6739999999999999</v>
-      </c>
-      <c r="J2">
-        <v>5.2590000000000003</v>
-      </c>
-      <c r="K2">
-        <v>7.4219999999999997</v>
-      </c>
-      <c r="L2">
-        <v>10.619</v>
-      </c>
-      <c r="M2">
-        <v>16.222999999999999</v>
-      </c>
-      <c r="N2">
-        <v>29.071999999999999</v>
-      </c>
-      <c r="O2">
-        <v>99.962999999999994</v>
+        <v>4.9694092827004196E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.19525241675617599</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.49209000000000003</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.0486316872427999</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.0772167968750002</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3.4985493827160501</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5.4144879786286699</v>
+      </c>
+      <c r="M2" s="4">
+        <v>8.6738999999999997</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15.3867346938776</v>
+      </c>
+      <c r="O2" s="4">
+        <v>129.48186999999999</v>
       </c>
       <c r="P2">
-        <v>2296</v>
+        <v>2448</v>
       </c>
       <c r="Q2" s="3">
         <f>P2/SUM($P$2:$P$9)</f>
-        <v>1.0948296004539537E-2</v>
+        <v>1.9576012986701426E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -560,44 +559,44 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="G3">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="H3">
-        <v>3.6680000000000001</v>
-      </c>
-      <c r="I3">
-        <v>5.327</v>
-      </c>
-      <c r="J3">
-        <v>7.6130000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.25422851562499998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.1825488281250001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.2355900000000002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.5218933333333302</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4.9380590717299606</v>
       </c>
       <c r="K3" s="4">
-        <v>10.82</v>
-      </c>
-      <c r="L3">
-        <v>15.625</v>
-      </c>
-      <c r="M3">
-        <v>23.387</v>
-      </c>
-      <c r="N3">
-        <v>39.265999999999998</v>
-      </c>
-      <c r="O3">
-        <v>99.881</v>
+        <v>6.5312654320987695</v>
+      </c>
+      <c r="L3" s="4">
+        <v>9.1010100000000005</v>
+      </c>
+      <c r="M3" s="4">
+        <v>12.817099609374999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>19.219159741458899</v>
+      </c>
+      <c r="O3" s="4">
+        <v>147.56985</v>
       </c>
       <c r="P3">
-        <v>849</v>
+        <v>2390</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" ref="Q3:Q9" si="0">P3/SUM($P$2:$P$9)</f>
-        <v>4.0483899424451509E-3</v>
+        <v>1.9112202221493631E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -614,44 +613,44 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="G4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="H4">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="I4">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="J4">
-        <v>5.7709999999999999</v>
-      </c>
-      <c r="K4">
-        <v>8.0090000000000003</v>
-      </c>
-      <c r="L4">
-        <v>11.653</v>
-      </c>
-      <c r="M4">
-        <v>17.891999999999999</v>
-      </c>
-      <c r="N4">
-        <v>31.393999999999998</v>
-      </c>
-      <c r="O4">
-        <v>99.938999999999993</v>
+        <v>0.133692748091603</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.37938775510204098</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.78603651987110701</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.4005696202531599</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.2324531275720201</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.3156901157613499</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.7699353647276101</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6.89323</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10.597</v>
+      </c>
+      <c r="O4" s="4">
+        <v>107.682825484765</v>
       </c>
       <c r="P4">
-        <v>74249</v>
+        <v>48453</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>0.35405053573216727</v>
+        <v>0.38746591390712587</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -668,44 +667,44 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="F5">
-        <v>1.369</v>
-      </c>
-      <c r="G5">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="H5">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="I5">
-        <v>5.9989999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.33653</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.97561728395061698</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.92097096188748</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3.0942578125</v>
       </c>
       <c r="J5" s="4">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="K5">
-        <v>11.776999999999999</v>
+        <v>4.3522348638838499</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5.8785600000000002</v>
       </c>
       <c r="L5" s="4">
-        <v>16.61</v>
+        <v>7.9967220683287197</v>
       </c>
       <c r="M5" s="4">
-        <v>24.78</v>
-      </c>
-      <c r="N5">
-        <v>41.512</v>
-      </c>
-      <c r="O5">
-        <v>99.888999999999996</v>
+        <v>10.7554580152672</v>
+      </c>
+      <c r="N5" s="4">
+        <v>15.907647679324899</v>
+      </c>
+      <c r="O5" s="4">
+        <v>144.67770999999999</v>
       </c>
       <c r="P5">
-        <v>27462</v>
+        <v>10356</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
-        <v>0.13095039411004564</v>
+        <v>8.281421180158495E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,44 +721,44 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="G6">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="H6">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="I6">
-        <v>4.633</v>
-      </c>
-      <c r="J6">
-        <v>6.6130000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.16532226562499999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.3060156249999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.5724894514767902</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.1791316793893101</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5.8211832061068698</v>
       </c>
       <c r="K6" s="4">
-        <v>9.35</v>
-      </c>
-      <c r="L6">
-        <v>13.606</v>
-      </c>
-      <c r="M6">
-        <v>20.545999999999999</v>
-      </c>
-      <c r="N6">
-        <v>35.613999999999997</v>
-      </c>
-      <c r="O6">
-        <v>99.801000000000002</v>
+        <v>7.3848500000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>9.6171972656250002</v>
+      </c>
+      <c r="M6" s="4">
+        <v>12.80626</v>
+      </c>
+      <c r="N6" s="4">
+        <v>20.314589104339799</v>
+      </c>
+      <c r="O6" s="4">
+        <v>136.22838411819001</v>
       </c>
       <c r="P6">
-        <v>4194</v>
+        <v>1884</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
-        <v>1.9998760210382761E-2</v>
+        <v>1.5065853131922175E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -776,44 +775,44 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="G7">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="H7">
-        <v>4.4790000000000001</v>
-      </c>
-      <c r="I7">
-        <v>6.5380000000000003</v>
-      </c>
-      <c r="J7">
-        <v>9.1150000000000002</v>
-      </c>
-      <c r="K7">
-        <v>12.734999999999999</v>
-      </c>
-      <c r="L7">
-        <v>18.417000000000002</v>
-      </c>
-      <c r="M7">
-        <v>27.378</v>
-      </c>
-      <c r="N7">
-        <v>43.866</v>
-      </c>
-      <c r="O7">
-        <v>99.930999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.57594650205761</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.0909704641350202</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.5910839843750004</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.1775190839694698</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7.8060707803992697</v>
+      </c>
+      <c r="K7" s="4">
+        <v>9.7128899999999998</v>
+      </c>
+      <c r="L7" s="4">
+        <v>11.9559398496241</v>
+      </c>
+      <c r="M7" s="4">
+        <v>15.038610050890599</v>
+      </c>
+      <c r="N7" s="4">
+        <v>20.2957679914071</v>
+      </c>
+      <c r="O7" s="4">
+        <v>133.17608494921501</v>
       </c>
       <c r="P7">
-        <v>1049</v>
+        <v>1144</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
-        <v>5.0020742633980729E-3</v>
+        <v>9.1482675068572019E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -830,44 +829,44 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="G8">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="H8">
-        <v>3.3740000000000001</v>
-      </c>
-      <c r="I8">
-        <v>4.9429999999999996</v>
-      </c>
-      <c r="J8">
-        <v>7.0250000000000004</v>
-      </c>
-      <c r="K8">
-        <v>9.8919999999999995</v>
-      </c>
-      <c r="L8">
-        <v>14.068</v>
-      </c>
-      <c r="M8">
-        <v>20.861999999999998</v>
-      </c>
-      <c r="N8">
-        <v>34.965000000000003</v>
-      </c>
-      <c r="O8">
-        <v>99.557000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.70379501385041598</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8197890295358701</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.9331347656250002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.03376908396947</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5.2481267280735597</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6.55696349065005</v>
+      </c>
+      <c r="L8" s="4">
+        <v>8.13157</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10.285344827586201</v>
+      </c>
+      <c r="N8" s="4">
+        <v>14.1549676823638</v>
+      </c>
+      <c r="O8" s="4">
+        <v>148.77317901234602</v>
       </c>
       <c r="P8">
-        <v>79691</v>
+        <v>48549</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
-        <v>0.38000028610529629</v>
+        <v>0.38823360069091811</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -884,44 +883,44 @@
         <v>3</v>
       </c>
       <c r="E9" s="4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="G9">
-        <v>3.1389999999999998</v>
-      </c>
-      <c r="H9">
-        <v>4.7990000000000004</v>
-      </c>
-      <c r="I9">
-        <v>6.9059999999999997</v>
-      </c>
-      <c r="J9">
-        <v>9.8870000000000005</v>
-      </c>
-      <c r="K9">
-        <v>13.705</v>
-      </c>
-      <c r="L9">
-        <v>19.434999999999999</v>
-      </c>
-      <c r="M9">
-        <v>28.161000000000001</v>
-      </c>
-      <c r="N9">
-        <v>45.317999999999998</v>
-      </c>
-      <c r="O9">
-        <v>99.941000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5182548476454301</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.0365805877114904</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4.6120781893004095</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.1264503816793905</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7.7574850507848607</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9.6724707031250006</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11.9561161524501</v>
+      </c>
+      <c r="M9" s="4">
+        <v>15.292350000000001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>21.610499999999998</v>
+      </c>
+      <c r="O9" s="4">
+        <v>112.38618320610701</v>
       </c>
       <c r="P9">
-        <v>19923</v>
+        <v>9827</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
-        <v>9.5001263631725258E-2</v>
+        <v>7.8583937753396615E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Main/SASdata/single_formue.xlsx
+++ b/Main/SASdata/single_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA258D-4BA0-4041-8444-84F094362267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702A42EE-369F-40F2-A769-404A20BCEC3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main/SASdata/single_formue.xlsx
+++ b/Main/SASdata/single_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702A42EE-369F-40F2-A769-404A20BCEC3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226176C4-9254-40F7-84E9-931CB741AD2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Køn (mand)</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>High skilled</t>
-  </si>
-  <si>
-    <t>Nobs</t>
   </si>
   <si>
     <t>Frac</t>
@@ -98,12 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FD9FE-3FAB-4670-AA73-9E9FDF5C2841}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,12 +428,11 @@
     <col min="5" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
         <v>0</v>
@@ -483,15 +478,12 @@
       <c r="O1" s="1">
         <v>100</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -504,48 +496,44 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4.9694092827004196E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.19525241675617599</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.49209000000000003</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.0486316872427999</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2.0772167968750002</v>
-      </c>
-      <c r="K2" s="4">
-        <v>3.4985493827160501</v>
-      </c>
-      <c r="L2" s="4">
-        <v>5.4144879786286699</v>
-      </c>
-      <c r="M2" s="4">
-        <v>8.6738999999999997</v>
-      </c>
-      <c r="N2" s="4">
-        <v>15.3867346938776</v>
-      </c>
-      <c r="O2" s="4">
-        <v>129.48186999999999</v>
-      </c>
-      <c r="P2">
-        <v>2448</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>P2/SUM($P$2:$P$9)</f>
-        <v>1.9576012986701426E-2</v>
+      <c r="E2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.11090663367278959</v>
+      </c>
+      <c r="G2">
+        <v>0.33221491609495279</v>
+      </c>
+      <c r="H2">
+        <v>0.68864879854809435</v>
+      </c>
+      <c r="I2">
+        <v>1.4128831610139472</v>
+      </c>
+      <c r="J2">
+        <v>2.5277099236641218</v>
+      </c>
+      <c r="K2">
+        <v>4.2473227880658442</v>
+      </c>
+      <c r="L2">
+        <v>6.29885390946502</v>
+      </c>
+      <c r="M2">
+        <v>9.5511714646376085</v>
+      </c>
+      <c r="N2">
+        <v>16.075365855571249</v>
+      </c>
+      <c r="O2">
+        <v>117.85570987654322</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.2594157946760285E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -558,48 +546,44 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.25422851562499998</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.1825488281250001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2.2355900000000002</v>
-      </c>
-      <c r="I3" s="4">
-        <v>3.5218933333333302</v>
-      </c>
-      <c r="J3" s="4">
-        <v>4.9380590717299606</v>
-      </c>
-      <c r="K3" s="4">
-        <v>6.5312654320987695</v>
-      </c>
-      <c r="L3" s="4">
-        <v>9.1010100000000005</v>
-      </c>
-      <c r="M3" s="4">
-        <v>12.817099609374999</v>
-      </c>
-      <c r="N3" s="4">
-        <v>19.219159741458899</v>
-      </c>
-      <c r="O3" s="4">
-        <v>147.56985</v>
-      </c>
-      <c r="P3">
-        <v>2390</v>
-      </c>
-      <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q9" si="0">P3/SUM($P$2:$P$9)</f>
-        <v>1.9112202221493631E-2</v>
+      <c r="E3">
+        <v>1.4557613168724282E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.051378600823045</v>
+      </c>
+      <c r="G3">
+        <v>2.1845906186518929</v>
+      </c>
+      <c r="H3">
+        <v>4.2467440000000005</v>
+      </c>
+      <c r="I3">
+        <v>6.1613741107460926</v>
+      </c>
+      <c r="J3">
+        <v>7.9914526795504406</v>
+      </c>
+      <c r="K3">
+        <v>10.3282846418467</v>
+      </c>
+      <c r="L3">
+        <v>13.05785777777778</v>
+      </c>
+      <c r="M3">
+        <v>17.5000912567019</v>
+      </c>
+      <c r="N3">
+        <v>25.625788003146273</v>
+      </c>
+      <c r="O3">
+        <v>91.039989258861425</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4.3287092266266741E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -612,48 +596,44 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.133692748091603</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.37938775510204098</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.78603651987110701</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.4005696202531599</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2.2324531275720201</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.3156901157613499</v>
-      </c>
-      <c r="L4" s="4">
-        <v>4.7699353647276101</v>
-      </c>
-      <c r="M4" s="4">
-        <v>6.89323</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10.597</v>
-      </c>
-      <c r="O4" s="4">
-        <v>107.682825484765</v>
-      </c>
-      <c r="P4">
-        <v>48453</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38746591390712587</v>
+      <c r="E4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.23668236213991772</v>
+      </c>
+      <c r="G4">
+        <v>0.58894002175632898</v>
+      </c>
+      <c r="H4">
+        <v>1.1163712730101121</v>
+      </c>
+      <c r="I4">
+        <v>1.7933992030004691</v>
+      </c>
+      <c r="J4">
+        <v>2.6909344790547802</v>
+      </c>
+      <c r="K4">
+        <v>3.7608944427480919</v>
+      </c>
+      <c r="L4">
+        <v>5.1696549473684232</v>
+      </c>
+      <c r="M4">
+        <v>7.1444002469135794</v>
+      </c>
+      <c r="N4">
+        <v>10.62183714070891</v>
+      </c>
+      <c r="O4">
+        <v>105.5969444444444</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.40333685538021063</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -666,48 +646,44 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.33653</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.97561728395061698</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.92097096188748</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.0942578125</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4.3522348638838499</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5.8785600000000002</v>
-      </c>
-      <c r="L5" s="4">
-        <v>7.9967220683287197</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10.7554580152672</v>
-      </c>
-      <c r="N5" s="4">
-        <v>15.907647679324899</v>
-      </c>
-      <c r="O5" s="4">
-        <v>144.67770999999999</v>
-      </c>
-      <c r="P5">
-        <v>10356</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" si="0"/>
-        <v>8.281421180158495E-2</v>
+      <c r="E5">
+        <v>9.1836734693877559E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.56310654008438832</v>
+      </c>
+      <c r="G5">
+        <v>1.4244609163562261</v>
+      </c>
+      <c r="H5">
+        <v>2.5106727032238929</v>
+      </c>
+      <c r="I5">
+        <v>3.7169021613226803</v>
+      </c>
+      <c r="J5">
+        <v>5.1519565402105867</v>
+      </c>
+      <c r="K5">
+        <v>6.7321872691597413</v>
+      </c>
+      <c r="L5">
+        <v>8.8340889276472545</v>
+      </c>
+      <c r="M5">
+        <v>11.601905255750211</v>
+      </c>
+      <c r="N5">
+        <v>16.257599663144219</v>
+      </c>
+      <c r="O5">
+        <v>120.86079854809441</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6.1658543235965778E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -720,48 +696,44 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.16532226562499999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.3060156249999999</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2.5724894514767902</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4.1791316793893101</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5.8211832061068698</v>
-      </c>
-      <c r="K6" s="4">
-        <v>7.3848500000000001</v>
-      </c>
-      <c r="L6" s="4">
-        <v>9.6171972656250002</v>
-      </c>
-      <c r="M6" s="4">
-        <v>12.80626</v>
-      </c>
-      <c r="N6" s="4">
-        <v>20.314589104339799</v>
-      </c>
-      <c r="O6" s="4">
-        <v>136.22838411819001</v>
-      </c>
-      <c r="P6">
-        <v>1884</v>
-      </c>
-      <c r="Q6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5065853131922175E-2</v>
+      <c r="E6">
+        <v>9.7656250000000002E-6</v>
+      </c>
+      <c r="F6">
+        <v>1.105357972599885</v>
+      </c>
+      <c r="G6">
+        <v>3.0029011085915851</v>
+      </c>
+      <c r="H6">
+        <v>4.4542625834923664</v>
+      </c>
+      <c r="I6">
+        <v>6.0668563716143256</v>
+      </c>
+      <c r="J6">
+        <v>7.4151199999999999</v>
+      </c>
+      <c r="K6">
+        <v>9.1167695473251023</v>
+      </c>
+      <c r="L6">
+        <v>11.82810822651996</v>
+      </c>
+      <c r="M6">
+        <v>16.24863167938932</v>
+      </c>
+      <c r="N6">
+        <v>23.572734177215221</v>
+      </c>
+      <c r="O6">
+        <v>136.22838411819021</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.0446845495756502E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -774,48 +746,44 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.57594650205761</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3.0909704641350202</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.5910839843750004</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6.1775190839694698</v>
-      </c>
-      <c r="J7" s="4">
-        <v>7.8060707803992697</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="E7">
+        <v>5.3660337552742625E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.2934471584915612</v>
+      </c>
+      <c r="G7">
+        <v>4.2218086419753087</v>
+      </c>
+      <c r="H7">
+        <v>5.9382977605572904</v>
+      </c>
+      <c r="I7">
+        <v>7.9919036855916028</v>
+      </c>
+      <c r="J7">
         <v>9.7128899999999998</v>
       </c>
-      <c r="L7" s="4">
-        <v>11.9559398496241</v>
-      </c>
-      <c r="M7" s="4">
-        <v>15.038610050890599</v>
-      </c>
-      <c r="N7" s="4">
-        <v>20.2957679914071</v>
-      </c>
-      <c r="O7" s="4">
-        <v>133.17608494921501</v>
-      </c>
-      <c r="P7">
-        <v>1144</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" si="0"/>
-        <v>9.1482675068572019E-3</v>
+      <c r="K7">
+        <v>11.9237406875</v>
+      </c>
+      <c r="L7">
+        <v>14.49712042831216</v>
+      </c>
+      <c r="M7">
+        <v>17.673104732824427</v>
+      </c>
+      <c r="N7">
+        <v>24.5891713125</v>
+      </c>
+      <c r="O7">
+        <v>76.948915145005373</v>
+      </c>
+      <c r="P7" s="3">
+        <v>8.8448822386584403E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -828,48 +796,44 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.70379501385041598</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1.8197890295358701</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.9331347656250002</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.03376908396947</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5.2481267280735597</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6.55696349065005</v>
-      </c>
-      <c r="L8" s="4">
-        <v>8.13157</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10.285344827586201</v>
-      </c>
-      <c r="N8" s="4">
-        <v>14.1549676823638</v>
-      </c>
-      <c r="O8" s="4">
-        <v>148.77317901234602</v>
-      </c>
-      <c r="P8">
-        <v>48549</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.38823360069091811</v>
+      <c r="E8">
+        <v>7.518796992481204E-5</v>
+      </c>
+      <c r="F8">
+        <v>1.4011362962962961</v>
+      </c>
+      <c r="G8">
+        <v>2.641236672635316</v>
+      </c>
+      <c r="H8">
+        <v>3.7092501097046409</v>
+      </c>
+      <c r="I8">
+        <v>4.8039683881856563</v>
+      </c>
+      <c r="J8">
+        <v>5.9556987295825765</v>
+      </c>
+      <c r="K8">
+        <v>7.1648098148820329</v>
+      </c>
+      <c r="L8">
+        <v>8.7032139999999973</v>
+      </c>
+      <c r="M8">
+        <v>10.6919037538193</v>
+      </c>
+      <c r="N8">
+        <v>14.30847478485688</v>
+      </c>
+      <c r="O8">
+        <v>141.29803085299451</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.42491223286410579</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -882,45 +846,41 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1.5182548476454301</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3.0365805877114904</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4.6120781893004095</v>
-      </c>
-      <c r="I9" s="4">
-        <v>6.1264503816793905</v>
-      </c>
-      <c r="J9" s="4">
-        <v>7.7574850507848607</v>
-      </c>
-      <c r="K9" s="4">
-        <v>9.6724707031250006</v>
-      </c>
-      <c r="L9" s="4">
-        <v>11.9561161524501</v>
-      </c>
-      <c r="M9" s="4">
-        <v>15.292350000000001</v>
-      </c>
-      <c r="N9" s="4">
-        <v>21.610499999999998</v>
-      </c>
-      <c r="O9" s="4">
-        <v>112.38618320610701</v>
-      </c>
-      <c r="P9">
-        <v>9827</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="0"/>
-        <v>7.8583937753396615E-2</v>
+      <c r="E9">
+        <v>2.4812030075187973E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.3762127100781139</v>
+      </c>
+      <c r="G9">
+        <v>4.0708880000000001</v>
+      </c>
+      <c r="H9">
+        <v>5.5782535967078184</v>
+      </c>
+      <c r="I9">
+        <v>7.1871694507203969</v>
+      </c>
+      <c r="J9">
+        <v>8.7880900000000004</v>
+      </c>
+      <c r="K9">
+        <v>10.791213518987339</v>
+      </c>
+      <c r="L9">
+        <v>13.122288108301531</v>
+      </c>
+      <c r="M9">
+        <v>16.205576274336469</v>
+      </c>
+      <c r="N9">
+        <v>22.304707121597108</v>
+      </c>
+      <c r="O9">
+        <v>104.47548999999999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>7.3877773611915887E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Main/SASdata/single_formue.xlsx
+++ b/Main/SASdata/single_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226176C4-9254-40F7-84E9-931CB741AD2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD6D83-1BB3-439D-8DC2-A57ED7674F0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,11 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FD9FE-3FAB-4670-AA73-9E9FDF5C2841}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +430,8 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -496,37 +500,37 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>2.44140625E-4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.11090663367278959</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>0.33221491609495279</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>0.68864879854809435</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>1.4128831610139472</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>2.5277099236641218</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>4.2473227880658442</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>6.29885390946502</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>9.5511714646376085</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>16.075365855571249</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>117.85570987654322</v>
       </c>
       <c r="P2" s="3">
@@ -546,37 +550,37 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>1.4557613168724282E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>1.051378600823045</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>2.1845906186518929</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>4.2467440000000005</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>6.1613741107460926</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>7.9914526795504406</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>10.3282846418467</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>13.05785777777778</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>17.5000912567019</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>25.625788003146273</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>91.039989258861425</v>
       </c>
       <c r="P3" s="3">
@@ -596,37 +600,37 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.23668236213991772</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.58894002175632898</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>1.1163712730101121</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>1.7933992030004691</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>2.6909344790547802</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>3.7608944427480919</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>5.1696549473684232</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>7.1444002469135794</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>10.62183714070891</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>105.5969444444444</v>
       </c>
       <c r="P4" s="3">
@@ -646,37 +650,37 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>9.1836734693877559E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.56310654008438832</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>1.4244609163562261</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>2.5106727032238929</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>3.7169021613226803</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>5.1519565402105867</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>6.7321872691597413</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>8.8340889276472545</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>11.601905255750211</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>16.257599663144219</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>120.86079854809441</v>
       </c>
       <c r="P5" s="3">
@@ -696,37 +700,37 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>9.7656250000000002E-6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>1.105357972599885</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>3.0029011085915851</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>4.4542625834923664</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>6.0668563716143256</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>7.4151199999999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>9.1167695473251023</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>11.82810822651996</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>16.24863167938932</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>23.572734177215221</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>136.22838411819021</v>
       </c>
       <c r="P6" s="3">
@@ -746,37 +750,37 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>5.3660337552742625E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>2.2934471584915612</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>4.2218086419753087</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>5.9382977605572904</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>7.9919036855916028</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>9.7128899999999998</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>11.9237406875</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>14.49712042831216</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>17.673104732824427</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>24.5891713125</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>76.948915145005373</v>
       </c>
       <c r="P7" s="3">
@@ -796,37 +800,37 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>7.518796992481204E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>1.4011362962962961</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>2.641236672635316</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>3.7092501097046409</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>4.8039683881856563</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>5.9556987295825765</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>7.1648098148820329</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>8.7032139999999973</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>10.6919037538193</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>14.30847478485688</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>141.29803085299451</v>
       </c>
       <c r="P8" s="3">
@@ -846,42 +850,146 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>2.4812030075187973E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>2.3762127100781139</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>4.0708880000000001</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>5.5782535967078184</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>7.1871694507203969</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>8.7880900000000004</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>10.791213518987339</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>13.122288108301531</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>16.205576274336469</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>22.304707121597108</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>104.47548999999999</v>
       </c>
       <c r="P9" s="3">
         <v>7.3877773611915887E-2</v>
       </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
